--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Epo-Crlf3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Epo-Crlf3.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1113566666666667</v>
+        <v>0.05285566666666667</v>
       </c>
       <c r="H2">
-        <v>0.33407</v>
+        <v>0.158567</v>
       </c>
       <c r="I2">
-        <v>0.7183683124032341</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="J2">
-        <v>0.7183683124032342</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.609012</v>
+        <v>3.403686</v>
       </c>
       <c r="N2">
-        <v>37.827036</v>
+        <v>10.211058</v>
       </c>
       <c r="O2">
-        <v>0.506184498969219</v>
+        <v>0.2167319603983227</v>
       </c>
       <c r="P2">
-        <v>0.506184498969219</v>
+        <v>0.2167319603983227</v>
       </c>
       <c r="Q2">
-        <v>1.40409754628</v>
+        <v>0.179904092654</v>
       </c>
       <c r="R2">
-        <v>12.63687791652</v>
+        <v>1.619136833886</v>
       </c>
       <c r="S2">
-        <v>0.3636269042891944</v>
+        <v>0.1186948015779705</v>
       </c>
       <c r="T2">
-        <v>0.3636269042891945</v>
+        <v>0.1186948015779705</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1113566666666667</v>
+        <v>0.05285566666666667</v>
       </c>
       <c r="H3">
-        <v>0.33407</v>
+        <v>0.158567</v>
       </c>
       <c r="I3">
-        <v>0.7183683124032341</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="J3">
-        <v>0.7183683124032342</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.155293</v>
       </c>
       <c r="O3">
-        <v>0.2697091278519101</v>
+        <v>0.4278005437137455</v>
       </c>
       <c r="P3">
-        <v>0.2697091278519101</v>
+        <v>0.4278005437137455</v>
       </c>
       <c r="Q3">
-        <v>0.7481420813899999</v>
+        <v>0.355107149459</v>
       </c>
       <c r="R3">
-        <v>6.73327873251</v>
+        <v>3.195964345131</v>
       </c>
       <c r="S3">
-        <v>0.1937504910147247</v>
+        <v>0.2342880143645112</v>
       </c>
       <c r="T3">
-        <v>0.1937504910147248</v>
+        <v>0.2342880143645112</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1113566666666667</v>
+        <v>0.05285566666666667</v>
       </c>
       <c r="H4">
-        <v>0.33407</v>
+        <v>0.158567</v>
       </c>
       <c r="I4">
-        <v>0.7183683124032341</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="J4">
-        <v>0.7183683124032342</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>16.747411</v>
       </c>
       <c r="O4">
-        <v>0.224106373178871</v>
+        <v>0.3554674958879319</v>
       </c>
       <c r="P4">
-        <v>0.224106373178871</v>
+        <v>0.3554674958879319</v>
       </c>
       <c r="Q4">
-        <v>0.6216452880855555</v>
+        <v>0.2950651911152222</v>
       </c>
       <c r="R4">
-        <v>5.59480759277</v>
+        <v>2.655586720037</v>
       </c>
       <c r="S4">
-        <v>0.1609909170993149</v>
+        <v>0.1946743055998428</v>
       </c>
       <c r="T4">
-        <v>0.160990917099315</v>
+        <v>0.1946743055998428</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.090014</v>
       </c>
       <c r="I5">
-        <v>0.1935618441424393</v>
+        <v>0.3108894545429426</v>
       </c>
       <c r="J5">
-        <v>0.1935618441424394</v>
+        <v>0.3108894545429427</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.609012</v>
+        <v>3.403686</v>
       </c>
       <c r="N5">
-        <v>37.827036</v>
+        <v>10.211058</v>
       </c>
       <c r="O5">
-        <v>0.506184498969219</v>
+        <v>0.2167319603983227</v>
       </c>
       <c r="P5">
-        <v>0.506184498969219</v>
+        <v>0.2167319603983227</v>
       </c>
       <c r="Q5">
-        <v>0.378329202056</v>
+        <v>0.102126463868</v>
       </c>
       <c r="R5">
-        <v>3.404962818504</v>
+        <v>0.9191381748119999</v>
       </c>
       <c r="S5">
-        <v>0.09797800509679873</v>
+        <v>0.06737968095025719</v>
       </c>
       <c r="T5">
-        <v>0.09797800509679874</v>
+        <v>0.06737968095025719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.090014</v>
       </c>
       <c r="I6">
-        <v>0.1935618441424393</v>
+        <v>0.3108894545429426</v>
       </c>
       <c r="J6">
-        <v>0.1935618441424394</v>
+        <v>0.3108894545429427</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20.155293</v>
       </c>
       <c r="O6">
-        <v>0.2697091278519101</v>
+        <v>0.4278005437137455</v>
       </c>
       <c r="P6">
-        <v>0.2697091278519101</v>
+        <v>0.4278005437137455</v>
       </c>
       <c r="Q6">
         <v>0.201584282678</v>
@@ -818,10 +818,10 @@
         <v>1.814258544102</v>
       </c>
       <c r="S6">
-        <v>0.05220539616906467</v>
+        <v>0.1329986776883406</v>
       </c>
       <c r="T6">
-        <v>0.05220539616906469</v>
+        <v>0.1329986776883406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.090014</v>
       </c>
       <c r="I7">
-        <v>0.1935618441424393</v>
+        <v>0.3108894545429426</v>
       </c>
       <c r="J7">
-        <v>0.1935618441424394</v>
+        <v>0.3108894545429427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>16.747411</v>
       </c>
       <c r="O7">
-        <v>0.224106373178871</v>
+        <v>0.3554674958879319</v>
       </c>
       <c r="P7">
-        <v>0.224106373178871</v>
+        <v>0.3554674958879319</v>
       </c>
       <c r="Q7">
         <v>0.1675001615282222</v>
@@ -880,10 +880,10 @@
         <v>1.507501453754</v>
       </c>
       <c r="S7">
-        <v>0.04337844287657597</v>
+        <v>0.1105110959043448</v>
       </c>
       <c r="T7">
-        <v>0.04337844287657598</v>
+        <v>0.1105110959043449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.040956</v>
       </c>
       <c r="I8">
-        <v>0.0880698434543265</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="J8">
-        <v>0.08806984345432652</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.609012</v>
+        <v>3.403686</v>
       </c>
       <c r="N8">
-        <v>37.827036</v>
+        <v>10.211058</v>
       </c>
       <c r="O8">
-        <v>0.506184498969219</v>
+        <v>0.2167319603983227</v>
       </c>
       <c r="P8">
-        <v>0.506184498969219</v>
+        <v>0.2167319603983227</v>
       </c>
       <c r="Q8">
-        <v>0.172138231824</v>
+        <v>0.046467121272</v>
       </c>
       <c r="R8">
-        <v>1.549244086416</v>
+        <v>0.418204091448</v>
       </c>
       <c r="S8">
-        <v>0.04457958958322581</v>
+        <v>0.03065747787009502</v>
       </c>
       <c r="T8">
-        <v>0.04457958958322582</v>
+        <v>0.03065747787009502</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.040956</v>
       </c>
       <c r="I9">
-        <v>0.0880698434543265</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="J9">
-        <v>0.08806984345432652</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>20.155293</v>
       </c>
       <c r="O9">
-        <v>0.2697091278519101</v>
+        <v>0.4278005437137455</v>
       </c>
       <c r="P9">
-        <v>0.2697091278519101</v>
+        <v>0.4278005437137455</v>
       </c>
       <c r="Q9">
         <v>0.091720020012</v>
@@ -1004,10 +1004,10 @@
         <v>0.825480180108</v>
       </c>
       <c r="S9">
-        <v>0.02375324066812065</v>
+        <v>0.06051385166089362</v>
       </c>
       <c r="T9">
-        <v>0.02375324066812066</v>
+        <v>0.06051385166089364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.040956</v>
       </c>
       <c r="I10">
-        <v>0.0880698434543265</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="J10">
-        <v>0.08806984345432652</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>16.747411</v>
       </c>
       <c r="O10">
-        <v>0.224106373178871</v>
+        <v>0.3554674958879319</v>
       </c>
       <c r="P10">
-        <v>0.224106373178871</v>
+        <v>0.3554674958879319</v>
       </c>
       <c r="Q10">
         <v>0.07621188499066667</v>
@@ -1066,10 +1066,10 @@
         <v>0.685906964916</v>
       </c>
       <c r="S10">
-        <v>0.01973701320298004</v>
+        <v>0.05028209438374417</v>
       </c>
       <c r="T10">
-        <v>0.01973701320298004</v>
+        <v>0.05028209438374417</v>
       </c>
     </row>
   </sheetData>
